--- a/Data new/MA-T12 data/PAR_PW_GE+EB_NG_1.xlsx
+++ b/Data new/MA-T12 data/PAR_PW_GE+EB_NG_1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/luxu_ntnu_no/Documents/internship/website/Data new/MA-T12 data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_7F31F956AC693926266D5865A742828CD3B1EC5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D64C8E3-AF06-439C-B8FF-109035C9A0A2}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="21585" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Color Data" sheetId="1" r:id="rId1"/>
@@ -34,6 +28,9 @@
     <t>STANDARD:</t>
   </si>
   <si>
+    <t>PAR_PEN_GE+EB_NG_1</t>
+  </si>
+  <si>
     <t>ILLUMINANT/OBSERVER:</t>
   </si>
   <si>
@@ -188,29 +185,19 @@
   </si>
   <si>
     <t>15d</t>
-  </si>
-  <si>
-    <t>PAR_PW_GE+EB_NG_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,18 +227,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -267,13 +246,7 @@
     <xdr:ext cx="4572000" cy="3429000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -302,13 +275,7 @@
     <xdr:ext cx="4572000" cy="3429000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -337,13 +304,7 @@
     <xdr:ext cx="4572000" cy="3429000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -372,13 +333,7 @@
     <xdr:ext cx="4572000" cy="3429000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -407,13 +362,7 @@
     <xdr:ext cx="4572000" cy="3429000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -442,13 +391,7 @@
     <xdr:ext cx="4572000" cy="3429000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -477,13 +420,7 @@
     <xdr:ext cx="4572000" cy="3429000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -506,9 +443,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -546,7 +483,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -580,7 +517,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -615,10 +551,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -791,20 +726,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -812,303 +745,299 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>62.263404967168398</v>
+        <v>62.2634049671684</v>
       </c>
       <c r="E5" s="2">
-        <v>-8.5332481367011397</v>
+        <v>-8.53324813670114</v>
       </c>
       <c r="F5" s="2">
         <v>10.6217430188804</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>61.473312586911497</v>
+        <v>61.4733125869115</v>
       </c>
       <c r="E6" s="2">
-        <v>-8.8523788738682505</v>
+        <v>-8.85237887386825</v>
       </c>
       <c r="F6" s="2">
-        <v>10.644658999705999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>10.644658999706</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>60.762625277100803</v>
+        <v>60.7626252771008</v>
       </c>
       <c r="E7" s="2">
-        <v>-8.6676173975567306</v>
+        <v>-8.66761739755673</v>
       </c>
       <c r="F7" s="2">
-        <v>10.890745818376301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>10.8907458183763</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
-        <v>61.829776563880998</v>
+        <v>61.829776563881</v>
       </c>
       <c r="E8" s="2">
-        <v>-8.8582021861851103</v>
+        <v>-8.85820218618511</v>
       </c>
       <c r="F8" s="2">
-        <v>11.157310778054599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>11.1573107780546</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>61.764854913486303</v>
+        <v>61.7648549134863</v>
       </c>
       <c r="E9" s="2">
-        <v>-8.9478026496517806</v>
+        <v>-8.94780264965178</v>
       </c>
       <c r="F9" s="2">
         <v>10.8952336416069</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>61.647586078250399</v>
+        <v>61.6475860782504</v>
       </c>
       <c r="E10" s="2">
-        <v>-8.7248143313108404</v>
+        <v>-8.72481433131084</v>
       </c>
       <c r="F10" s="2">
         <v>10.5383885835128</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>69.946305249864906</v>
+        <v>69.9463052498649</v>
       </c>
       <c r="E11" s="2">
-        <v>-7.0095745590364498</v>
+        <v>-7.00957455903645</v>
       </c>
       <c r="F11" s="2">
-        <v>9.4481498511683704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>9.44814985116837</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
-        <v>63.554303192085399</v>
+        <v>63.5543031920854</v>
       </c>
       <c r="E12" s="2">
-        <v>-8.1021941510834896</v>
+        <v>-8.10219415108349</v>
       </c>
       <c r="F12" s="2">
-        <v>10.513099798600001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>10.5130997986</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
-        <v>62.176932936211699</v>
+        <v>62.1769329362117</v>
       </c>
       <c r="E13" s="2">
-        <v>-8.2313256724261308</v>
+        <v>-8.23132567242613</v>
       </c>
       <c r="F13" s="2">
-        <v>10.625802100548499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>10.6258021005485</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
-        <v>61.262544276972299</v>
+        <v>61.2625442769723</v>
       </c>
       <c r="E14" s="2">
-        <v>-8.4968843864674497</v>
+        <v>-8.49688438646745</v>
       </c>
       <c r="F14" s="2">
-        <v>10.771638556108099</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>10.7716385561081</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2">
-        <v>62.716135942508402</v>
+        <v>62.7161359425084</v>
       </c>
       <c r="E15" s="2">
-        <v>-8.4606020726022404</v>
+        <v>-8.46060207260224</v>
       </c>
       <c r="F15" s="2">
-        <v>10.386726817342099</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>10.3867268173421</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2">
         <v>65.2311653137061</v>
       </c>
       <c r="E16" s="2">
-        <v>-8.3600841772588605</v>
+        <v>-8.36008417725886</v>
       </c>
       <c r="F16" s="2">
-        <v>9.8114886334204101</v>
+        <v>9.81148863342041</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1116,46 +1045,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH15"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1163,178 +1088,178 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AE3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3">
-        <v>0.16320756912231399</v>
+        <v>0.163207569122314</v>
       </c>
       <c r="E4" s="3">
-        <v>0.17640136718749999</v>
+        <v>0.1764013671875</v>
       </c>
       <c r="F4" s="3">
         <v>0.188230266571045</v>
       </c>
       <c r="G4" s="3">
-        <v>0.20399021148681601</v>
+        <v>0.203990211486816</v>
       </c>
       <c r="H4" s="3">
-        <v>0.22452323913574199</v>
+        <v>0.224523239135742</v>
       </c>
       <c r="I4" s="3">
-        <v>0.24196632385253899</v>
+        <v>0.241966323852539</v>
       </c>
       <c r="J4" s="3">
-        <v>0.25531366348266599</v>
+        <v>0.255313663482666</v>
       </c>
       <c r="K4" s="3">
-        <v>0.26672836303710901</v>
+        <v>0.266728363037109</v>
       </c>
       <c r="L4" s="3">
-        <v>0.27568000793456998</v>
+        <v>0.27568000793457</v>
       </c>
       <c r="M4" s="3">
-        <v>0.28486534118652301</v>
+        <v>0.284865341186523</v>
       </c>
       <c r="N4" s="3">
-        <v>0.29445055007934601</v>
+        <v>0.294450550079346</v>
       </c>
       <c r="O4" s="3">
-        <v>0.30412017822265602</v>
+        <v>0.304120178222656</v>
       </c>
       <c r="P4" s="3">
-        <v>0.31347721099853498</v>
+        <v>0.313477210998535</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.32247493743896499</v>
+        <v>0.322474937438965</v>
       </c>
       <c r="R4" s="3">
         <v>0.331451835632324</v>
       </c>
       <c r="S4" s="3">
-        <v>0.33803447723388702</v>
+        <v>0.338034477233887</v>
       </c>
       <c r="T4" s="3">
-        <v>0.34109268188476599</v>
+        <v>0.341092681884766</v>
       </c>
       <c r="U4" s="3">
         <v>0.337829933166504</v>
@@ -1343,31 +1268,31 @@
         <v>0.326277084350586</v>
       </c>
       <c r="W4" s="3">
-        <v>0.30544271469116202</v>
+        <v>0.305442714691162</v>
       </c>
       <c r="X4" s="3">
-        <v>0.28036884307861298</v>
+        <v>0.280368843078613</v>
       </c>
       <c r="Y4" s="3">
-        <v>0.26083084106445298</v>
+        <v>0.260830841064453</v>
       </c>
       <c r="Z4" s="3">
         <v>0.249793968200684</v>
       </c>
       <c r="AA4" s="3">
-        <v>0.24404857635498001</v>
+        <v>0.24404857635498</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.24209077835083001</v>
+        <v>0.24209077835083</v>
       </c>
       <c r="AC4" s="3">
-        <v>0.24534751892089801</v>
+        <v>0.245347518920898</v>
       </c>
       <c r="AD4" s="3">
-        <v>0.25567970275878898</v>
+        <v>0.255679702758789</v>
       </c>
       <c r="AE4" s="3">
-        <v>0.27358245849609403</v>
+        <v>0.273582458496094</v>
       </c>
       <c r="AF4" s="3">
         <v>0.292519664764404</v>
@@ -1376,24 +1301,24 @@
         <v>0.306494274139404</v>
       </c>
       <c r="AH4" s="3">
-        <v>0.31362762451171899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+        <v>0.313627624511719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
-        <v>0.15506249427795399</v>
+        <v>0.155062494277954</v>
       </c>
       <c r="E5" s="3">
-        <v>0.16692859649658201</v>
+        <v>0.166928596496582</v>
       </c>
       <c r="F5" s="3">
         <v>0.182295188903809</v>
@@ -1405,40 +1330,40 @@
         <v>0.216369209289551</v>
       </c>
       <c r="I5" s="3">
-        <v>0.23347360610961901</v>
+        <v>0.233473606109619</v>
       </c>
       <c r="J5" s="3">
         <v>0.246938934326172</v>
       </c>
       <c r="K5" s="3">
-        <v>0.25868436813354501</v>
+        <v>0.258684368133545</v>
       </c>
       <c r="L5" s="3">
         <v>0.268203735351563</v>
       </c>
       <c r="M5" s="3">
-        <v>0.27706703186035198</v>
+        <v>0.277067031860352</v>
       </c>
       <c r="N5" s="3">
-        <v>0.28629566192626998</v>
+        <v>0.28629566192627</v>
       </c>
       <c r="O5" s="3">
-        <v>0.29517555236816401</v>
+        <v>0.295175552368164</v>
       </c>
       <c r="P5" s="3">
-        <v>0.30480289459228499</v>
+        <v>0.304802894592285</v>
       </c>
       <c r="Q5" s="3">
         <v>0.3142991065979</v>
       </c>
       <c r="R5" s="3">
-        <v>0.32264690399169899</v>
+        <v>0.322646903991699</v>
       </c>
       <c r="S5" s="3">
         <v>0.329477386474609</v>
       </c>
       <c r="T5" s="3">
-        <v>0.33206619262695303</v>
+        <v>0.332066192626953</v>
       </c>
       <c r="U5" s="3">
         <v>0.327951507568359</v>
@@ -1447,114 +1372,114 @@
         <v>0.315335865020752</v>
       </c>
       <c r="W5" s="3">
-        <v>0.29422019958496098</v>
+        <v>0.294220199584961</v>
       </c>
       <c r="X5" s="3">
-        <v>0.27012914657592801</v>
+        <v>0.270129146575928</v>
       </c>
       <c r="Y5" s="3">
-        <v>0.25103013992309597</v>
+        <v>0.251030139923096</v>
       </c>
       <c r="Z5" s="3">
         <v>0.240174942016602</v>
       </c>
       <c r="AA5" s="3">
-        <v>0.23491266250610399</v>
+        <v>0.234912662506104</v>
       </c>
       <c r="AB5" s="3">
         <v>0.231664371490479</v>
       </c>
       <c r="AC5" s="3">
-        <v>0.23380531311035199</v>
+        <v>0.233805313110352</v>
       </c>
       <c r="AD5" s="3">
-        <v>0.24408714294433601</v>
+        <v>0.244087142944336</v>
       </c>
       <c r="AE5" s="3">
-        <v>0.26316440582275402</v>
+        <v>0.263164405822754</v>
       </c>
       <c r="AF5" s="3">
-        <v>0.28203483581542999</v>
+        <v>0.28203483581543</v>
       </c>
       <c r="AG5" s="3">
-        <v>0.29367053985595698</v>
+        <v>0.293670539855957</v>
       </c>
       <c r="AH5" s="3">
         <v>0.303922290802002</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3">
-        <v>0.14837691307067899</v>
+        <v>0.148376913070679</v>
       </c>
       <c r="E6" s="3">
-        <v>0.16215024948120099</v>
+        <v>0.162150249481201</v>
       </c>
       <c r="F6" s="3">
         <v>0.176625328063965</v>
       </c>
       <c r="G6" s="3">
-        <v>0.19006460189819299</v>
+        <v>0.190064601898193</v>
       </c>
       <c r="H6" s="3">
         <v>0.209094562530518</v>
       </c>
       <c r="I6" s="3">
-        <v>0.22439514160156199</v>
+        <v>0.224395141601562</v>
       </c>
       <c r="J6" s="3">
         <v>0.237759284973145</v>
       </c>
       <c r="K6" s="3">
-        <v>0.24943212509155299</v>
+        <v>0.249432125091553</v>
       </c>
       <c r="L6" s="3">
-        <v>0.25912220001220698</v>
+        <v>0.259122200012207</v>
       </c>
       <c r="M6" s="3">
-        <v>0.26746717453002899</v>
+        <v>0.267467174530029</v>
       </c>
       <c r="N6" s="3">
-        <v>0.27629980087280298</v>
+        <v>0.276299800872803</v>
       </c>
       <c r="O6" s="3">
-        <v>0.28622447967529302</v>
+        <v>0.286224479675293</v>
       </c>
       <c r="P6" s="3">
-        <v>0.29525842666626001</v>
+        <v>0.29525842666626</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.30444967269897499</v>
+        <v>0.304449672698975</v>
       </c>
       <c r="R6" s="3">
-        <v>0.31341049194335902</v>
+        <v>0.313410491943359</v>
       </c>
       <c r="S6" s="3">
-        <v>0.32129413604736301</v>
+        <v>0.321294136047363</v>
       </c>
       <c r="T6" s="3">
-        <v>0.32421337127685501</v>
+        <v>0.324213371276855</v>
       </c>
       <c r="U6" s="3">
-        <v>0.32016826629638701</v>
+        <v>0.320168266296387</v>
       </c>
       <c r="V6" s="3">
-        <v>0.30866973876953102</v>
+        <v>0.308669738769531</v>
       </c>
       <c r="W6" s="3">
-        <v>0.28852609634399401</v>
+        <v>0.288526096343994</v>
       </c>
       <c r="X6" s="3">
-        <v>0.26371738433837899</v>
+        <v>0.263717384338379</v>
       </c>
       <c r="Y6" s="3">
         <v>0.244266319274902</v>
@@ -1566,19 +1491,19 @@
         <v>0.227866992950439</v>
       </c>
       <c r="AB6" s="3">
-        <v>0.22570566177368201</v>
+        <v>0.225705661773682</v>
       </c>
       <c r="AC6" s="3">
         <v>0.228115863800049</v>
       </c>
       <c r="AD6" s="3">
-        <v>0.23831039428710901</v>
+        <v>0.238310394287109</v>
       </c>
       <c r="AE6" s="3">
-        <v>0.25525421142578097</v>
+        <v>0.255254211425781</v>
       </c>
       <c r="AF6" s="3">
-        <v>0.27340749740600601</v>
+        <v>0.273407497406006</v>
       </c>
       <c r="AG6" s="3">
         <v>0.286619663238525</v>
@@ -1587,24 +1512,24 @@
         <v>0.294911422729492</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3">
-        <v>0.15091733932495099</v>
+        <v>0.150917339324951</v>
       </c>
       <c r="E7" s="3">
         <v>0.165801029205322</v>
       </c>
       <c r="F7" s="3">
-        <v>0.18018520355224599</v>
+        <v>0.180185203552246</v>
       </c>
       <c r="G7" s="3">
         <v>0.197531852722168</v>
@@ -1619,52 +1544,52 @@
         <v>0.247634468078613</v>
       </c>
       <c r="K7" s="3">
-        <v>0.25885030746460003</v>
+        <v>0.2588503074646</v>
       </c>
       <c r="L7" s="3">
-        <v>0.26911222457885697</v>
+        <v>0.269112224578857</v>
       </c>
       <c r="M7" s="3">
-        <v>0.27875226974487299</v>
+        <v>0.278752269744873</v>
       </c>
       <c r="N7" s="3">
-        <v>0.28883611679077098</v>
+        <v>0.288836116790771</v>
       </c>
       <c r="O7" s="3">
         <v>0.29823184967041</v>
       </c>
       <c r="P7" s="3">
-        <v>0.30923574447631802</v>
+        <v>0.309235744476318</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.31812715530395502</v>
+        <v>0.318127155303955</v>
       </c>
       <c r="R7" s="3">
         <v>0.327247657775879</v>
       </c>
       <c r="S7" s="3">
-        <v>0.33434673309326202</v>
+        <v>0.334346733093262</v>
       </c>
       <c r="T7" s="3">
-        <v>0.33729503631591801</v>
+        <v>0.337295036315918</v>
       </c>
       <c r="U7" s="3">
-        <v>0.33295879364013697</v>
+        <v>0.332958793640137</v>
       </c>
       <c r="V7" s="3">
-        <v>0.32055053710937498</v>
+        <v>0.320550537109375</v>
       </c>
       <c r="W7" s="3">
-        <v>0.29975288391113297</v>
+        <v>0.299752883911133</v>
       </c>
       <c r="X7" s="3">
-        <v>0.27601009368896501</v>
+        <v>0.276010093688965</v>
       </c>
       <c r="Y7" s="3">
         <v>0.255093898773193</v>
       </c>
       <c r="Z7" s="3">
-        <v>0.24409925460815399</v>
+        <v>0.244099254608154</v>
       </c>
       <c r="AA7" s="3">
         <v>0.237176723480225</v>
@@ -1673,57 +1598,57 @@
         <v>0.235378112792969</v>
       </c>
       <c r="AC7" s="3">
-        <v>0.23828067779541001</v>
+        <v>0.23828067779541</v>
       </c>
       <c r="AD7" s="3">
-        <v>0.24996110916137701</v>
+        <v>0.249961109161377</v>
       </c>
       <c r="AE7" s="3">
-        <v>0.26748582839965801</v>
+        <v>0.267485828399658</v>
       </c>
       <c r="AF7" s="3">
-        <v>0.28737094879150399</v>
+        <v>0.287370948791504</v>
       </c>
       <c r="AG7" s="3">
-        <v>0.30012523651123002</v>
+        <v>0.30012523651123</v>
       </c>
       <c r="AH7" s="3">
-        <v>0.31037628173828102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+        <v>0.310376281738281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3">
-        <v>0.15011969566345201</v>
+        <v>0.150119695663452</v>
       </c>
       <c r="E8" s="3">
-        <v>0.16625051498413099</v>
+        <v>0.166250514984131</v>
       </c>
       <c r="F8" s="3">
         <v>0.18078254699707</v>
       </c>
       <c r="G8" s="3">
-        <v>0.19821939468383801</v>
+        <v>0.198219394683838</v>
       </c>
       <c r="H8" s="3">
-        <v>0.21810392379760701</v>
+        <v>0.218103923797607</v>
       </c>
       <c r="I8" s="3">
-        <v>0.23535263061523401</v>
+        <v>0.235352630615234</v>
       </c>
       <c r="J8" s="3">
-        <v>0.24845069885253901</v>
+        <v>0.248450698852539</v>
       </c>
       <c r="K8" s="3">
-        <v>0.26056697845458998</v>
+        <v>0.26056697845459</v>
       </c>
       <c r="L8" s="3">
         <v>0.269975357055664</v>
@@ -1732,81 +1657,81 @@
         <v>0.279446430206299</v>
       </c>
       <c r="N8" s="3">
-        <v>0.28926921844482401</v>
+        <v>0.289269218444824</v>
       </c>
       <c r="O8" s="3">
-        <v>0.29930099487304701</v>
+        <v>0.299300994873047</v>
       </c>
       <c r="P8" s="3">
-        <v>0.30819807052612302</v>
+        <v>0.308198070526123</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.31739160537719702</v>
+        <v>0.317391605377197</v>
       </c>
       <c r="R8" s="3">
-        <v>0.32642131805419899</v>
+        <v>0.326421318054199</v>
       </c>
       <c r="S8" s="3">
-        <v>0.33315437316894497</v>
+        <v>0.333154373168945</v>
       </c>
       <c r="T8" s="3">
         <v>0.336673126220703</v>
       </c>
       <c r="U8" s="3">
-        <v>0.33183078765869101</v>
+        <v>0.331830787658691</v>
       </c>
       <c r="V8" s="3">
-        <v>0.31952657699585002</v>
+        <v>0.31952657699585</v>
       </c>
       <c r="W8" s="3">
-        <v>0.29833719253539998</v>
+        <v>0.2983371925354</v>
       </c>
       <c r="X8" s="3">
-        <v>0.27277368545532199</v>
+        <v>0.272773685455322</v>
       </c>
       <c r="Y8" s="3">
-        <v>0.25281423568725597</v>
+        <v>0.252814235687256</v>
       </c>
       <c r="Z8" s="3">
-        <v>0.24226430892944301</v>
+        <v>0.242264308929443</v>
       </c>
       <c r="AA8" s="3">
-        <v>0.23683147430419901</v>
+        <v>0.236831474304199</v>
       </c>
       <c r="AB8" s="3">
-        <v>0.23516695022583001</v>
+        <v>0.23516695022583</v>
       </c>
       <c r="AC8" s="3">
         <v>0.2383176612854</v>
       </c>
       <c r="AD8" s="3">
-        <v>0.25006771087646501</v>
+        <v>0.250067710876465</v>
       </c>
       <c r="AE8" s="3">
-        <v>0.26671365737914998</v>
+        <v>0.26671365737915</v>
       </c>
       <c r="AF8" s="3">
-        <v>0.28592836380004899</v>
+        <v>0.285928363800049</v>
       </c>
       <c r="AG8" s="3">
-        <v>0.29889646530151398</v>
+        <v>0.298896465301514</v>
       </c>
       <c r="AH8" s="3">
         <v>0.307587261199951</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3">
-        <v>0.15030786514282199</v>
+        <v>0.150307865142822</v>
       </c>
       <c r="E9" s="3">
         <v>0.167572193145752</v>
@@ -1815,64 +1740,64 @@
         <v>0.183785743713379</v>
       </c>
       <c r="G9" s="3">
-        <v>0.19908882141113299</v>
+        <v>0.199088821411133</v>
       </c>
       <c r="H9" s="3">
         <v>0.219220962524414</v>
       </c>
       <c r="I9" s="3">
-        <v>0.23681600570678699</v>
+        <v>0.236816005706787</v>
       </c>
       <c r="J9" s="3">
-        <v>0.24953100204467801</v>
+        <v>0.249531002044678</v>
       </c>
       <c r="K9" s="3">
-        <v>0.26054039001464802</v>
+        <v>0.260540390014648</v>
       </c>
       <c r="L9" s="3">
-        <v>0.26962011337280301</v>
+        <v>0.269620113372803</v>
       </c>
       <c r="M9" s="3">
-        <v>0.27865386962890598</v>
+        <v>0.278653869628906</v>
       </c>
       <c r="N9" s="3">
-        <v>0.28867832183837899</v>
+        <v>0.288678321838379</v>
       </c>
       <c r="O9" s="3">
-        <v>0.29758358001709001</v>
+        <v>0.29758358001709</v>
       </c>
       <c r="P9" s="3">
         <v>0.306641635894775</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.31551313400268599</v>
+        <v>0.315513134002686</v>
       </c>
       <c r="R9" s="3">
-        <v>0.32432922363281302</v>
+        <v>0.324329223632813</v>
       </c>
       <c r="S9" s="3">
-        <v>0.33100685119628898</v>
+        <v>0.331006851196289</v>
       </c>
       <c r="T9" s="3">
-        <v>0.33367942810058598</v>
+        <v>0.333679428100586</v>
       </c>
       <c r="U9" s="3">
-        <v>0.32994522094726603</v>
+        <v>0.329945220947266</v>
       </c>
       <c r="V9" s="3">
         <v>0.318144912719727</v>
       </c>
       <c r="W9" s="3">
-        <v>0.29748186111450198</v>
+        <v>0.297481861114502</v>
       </c>
       <c r="X9" s="3">
-        <v>0.27239343643188502</v>
+        <v>0.272393436431885</v>
       </c>
       <c r="Y9" s="3">
-        <v>0.25330335617065403</v>
+        <v>0.253303356170654</v>
       </c>
       <c r="Z9" s="3">
-        <v>0.24206130981445301</v>
+        <v>0.242061309814453</v>
       </c>
       <c r="AA9" s="3">
         <v>0.236382751464844</v>
@@ -1887,66 +1812,66 @@
         <v>0.247177467346191</v>
       </c>
       <c r="AE9" s="3">
-        <v>0.26429357528686498</v>
+        <v>0.264293575286865</v>
       </c>
       <c r="AF9" s="3">
-        <v>0.28299940109252902</v>
+        <v>0.282999401092529</v>
       </c>
       <c r="AG9" s="3">
-        <v>0.29532279968261699</v>
+        <v>0.295322799682617</v>
       </c>
       <c r="AH9" s="3">
-        <v>0.30153047561645502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+        <v>0.301530475616455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3">
-        <v>0.25116140365600598</v>
+        <v>0.251161403656006</v>
       </c>
       <c r="E10" s="3">
-        <v>0.26629499435424803</v>
+        <v>0.266294994354248</v>
       </c>
       <c r="F10" s="3">
-        <v>0.27831089019775401</v>
+        <v>0.278310890197754</v>
       </c>
       <c r="G10" s="3">
-        <v>0.29515991210937498</v>
+        <v>0.295159912109375</v>
       </c>
       <c r="H10" s="3">
-        <v>0.31807861328124998</v>
+        <v>0.31807861328125</v>
       </c>
       <c r="I10" s="3">
-        <v>0.33480541229248001</v>
+        <v>0.33480541229248</v>
       </c>
       <c r="J10" s="3">
-        <v>0.34957538604736299</v>
+        <v>0.349575386047363</v>
       </c>
       <c r="K10" s="3">
-        <v>0.36232608795165999</v>
+        <v>0.36232608795166</v>
       </c>
       <c r="L10" s="3">
-        <v>0.37261329650878899</v>
+        <v>0.372613296508789</v>
       </c>
       <c r="M10" s="3">
-        <v>0.38113685607910203</v>
+        <v>0.381136856079102</v>
       </c>
       <c r="N10" s="3">
-        <v>0.39201419830322298</v>
+        <v>0.392014198303223</v>
       </c>
       <c r="O10" s="3">
-        <v>0.40202949523925802</v>
+        <v>0.402029495239258</v>
       </c>
       <c r="P10" s="3">
-        <v>0.41140792846679702</v>
+        <v>0.411407928466797</v>
       </c>
       <c r="Q10" s="3">
         <v>0.421477088928223</v>
@@ -1955,72 +1880,72 @@
         <v>0.430739593505859</v>
       </c>
       <c r="S10" s="3">
-        <v>0.43883697509765601</v>
+        <v>0.438836975097656</v>
       </c>
       <c r="T10" s="3">
         <v>0.441888046264648</v>
       </c>
       <c r="U10" s="3">
-        <v>0.43811573028564499</v>
+        <v>0.438115730285645</v>
       </c>
       <c r="V10" s="3">
-        <v>0.42645141601562497</v>
+        <v>0.426451416015625</v>
       </c>
       <c r="W10" s="3">
-        <v>0.40660430908203099</v>
+        <v>0.406604309082031</v>
       </c>
       <c r="X10" s="3">
-        <v>0.38197490692138703</v>
+        <v>0.381974906921387</v>
       </c>
       <c r="Y10" s="3">
-        <v>0.36323699951171901</v>
+        <v>0.363236999511719</v>
       </c>
       <c r="Z10" s="3">
-        <v>0.35300292968750002</v>
+        <v>0.3530029296875</v>
       </c>
       <c r="AA10" s="3">
-        <v>0.34682697296142601</v>
+        <v>0.346826972961426</v>
       </c>
       <c r="AB10" s="3">
-        <v>0.34416450500488299</v>
+        <v>0.344164505004883</v>
       </c>
       <c r="AC10" s="3">
-        <v>0.34680114746093699</v>
+        <v>0.346801147460937</v>
       </c>
       <c r="AD10" s="3">
-        <v>0.35697360992431598</v>
+        <v>0.356973609924316</v>
       </c>
       <c r="AE10" s="3">
-        <v>0.37529884338378899</v>
+        <v>0.375298843383789</v>
       </c>
       <c r="AF10" s="3">
-        <v>0.39451679229736297</v>
+        <v>0.394516792297363</v>
       </c>
       <c r="AG10" s="3">
-        <v>0.40780181884765598</v>
+        <v>0.407801818847656</v>
       </c>
       <c r="AH10" s="3">
-        <v>0.41655426025390602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+        <v>0.416554260253906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3">
-        <v>0.17059957504272499</v>
+        <v>0.170599575042725</v>
       </c>
       <c r="E11" s="3">
         <v>0.185555973052979</v>
       </c>
       <c r="F11" s="3">
-        <v>0.20121700286865199</v>
+        <v>0.201217002868652</v>
       </c>
       <c r="G11" s="3">
         <v>0.219106636047363</v>
@@ -2032,123 +1957,123 @@
         <v>0.255565586090088</v>
       </c>
       <c r="J11" s="3">
-        <v>0.26813936233520502</v>
+        <v>0.268139362335205</v>
       </c>
       <c r="K11" s="3">
-        <v>0.28026182174682601</v>
+        <v>0.280261821746826</v>
       </c>
       <c r="L11" s="3">
         <v>0.290636100769043</v>
       </c>
       <c r="M11" s="3">
-        <v>0.30043809890747097</v>
+        <v>0.300438098907471</v>
       </c>
       <c r="N11" s="3">
-        <v>0.30957735061645503</v>
+        <v>0.309577350616455</v>
       </c>
       <c r="O11" s="3">
-        <v>0.31973138809204099</v>
+        <v>0.319731388092041</v>
       </c>
       <c r="P11" s="3">
         <v>0.328759384155273</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.33770477294921902</v>
+        <v>0.337704772949219</v>
       </c>
       <c r="R11" s="3">
-        <v>0.34642910003662097</v>
+        <v>0.346429100036621</v>
       </c>
       <c r="S11" s="3">
-        <v>0.35337196350097699</v>
+        <v>0.353371963500977</v>
       </c>
       <c r="T11" s="3">
         <v>0.355645866394043</v>
       </c>
       <c r="U11" s="3">
-        <v>0.35177810668945297</v>
+        <v>0.351778106689453</v>
       </c>
       <c r="V11" s="3">
-        <v>0.34030364990234402</v>
+        <v>0.340303649902344</v>
       </c>
       <c r="W11" s="3">
-        <v>0.32104732513427697</v>
+        <v>0.321047325134277</v>
       </c>
       <c r="X11" s="3">
-        <v>0.29797782897949199</v>
+        <v>0.297977828979492</v>
       </c>
       <c r="Y11" s="3">
-        <v>0.27949562072753897</v>
+        <v>0.279495620727539</v>
       </c>
       <c r="Z11" s="3">
-        <v>0.26844528198242201</v>
+        <v>0.268445281982422</v>
       </c>
       <c r="AA11" s="3">
         <v>0.262969131469727</v>
       </c>
       <c r="AB11" s="3">
-        <v>0.26099586486816401</v>
+        <v>0.260995864868164</v>
       </c>
       <c r="AC11" s="3">
-        <v>0.26348567962646502</v>
+        <v>0.263485679626465</v>
       </c>
       <c r="AD11" s="3">
-        <v>0.27327659606933602</v>
+        <v>0.273276596069336</v>
       </c>
       <c r="AE11" s="3">
-        <v>0.28975120544433602</v>
+        <v>0.289751205444336</v>
       </c>
       <c r="AF11" s="3">
-        <v>0.30872493743896501</v>
+        <v>0.308724937438965</v>
       </c>
       <c r="AG11" s="3">
-        <v>0.32162242889404302</v>
+        <v>0.321622428894043</v>
       </c>
       <c r="AH11" s="3">
-        <v>0.32948173522949198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+        <v>0.329481735229492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3">
-        <v>0.15964315414428701</v>
+        <v>0.159643154144287</v>
       </c>
       <c r="E12" s="3">
-        <v>0.17279817581176801</v>
+        <v>0.172798175811768</v>
       </c>
       <c r="F12" s="3">
-        <v>0.18768751144409199</v>
+        <v>0.187687511444092</v>
       </c>
       <c r="G12" s="3">
-        <v>0.20465097427368201</v>
+        <v>0.204650974273682</v>
       </c>
       <c r="H12" s="3">
         <v>0.223933734893799</v>
       </c>
       <c r="I12" s="3">
-        <v>0.24091484069824201</v>
+        <v>0.240914840698242</v>
       </c>
       <c r="J12" s="3">
-        <v>0.25402011871337898</v>
+        <v>0.254020118713379</v>
       </c>
       <c r="K12" s="3">
-        <v>0.26570159912109398</v>
+        <v>0.265701599121094</v>
       </c>
       <c r="L12" s="3">
-        <v>0.27471828460693398</v>
+        <v>0.274718284606934</v>
       </c>
       <c r="M12" s="3">
-        <v>0.28365882873535198</v>
+        <v>0.283658828735352</v>
       </c>
       <c r="N12" s="3">
-        <v>0.29279058456420898</v>
+        <v>0.292790584564209</v>
       </c>
       <c r="O12" s="3">
         <v>0.303110866546631</v>
@@ -2157,13 +2082,13 @@
         <v>0.31203540802002</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.32130016326904298</v>
+        <v>0.321300163269043</v>
       </c>
       <c r="R12" s="3">
-        <v>0.32980888366699201</v>
+        <v>0.329808883666992</v>
       </c>
       <c r="S12" s="3">
-        <v>0.33608810424804703</v>
+        <v>0.336088104248047</v>
       </c>
       <c r="T12" s="3">
         <v>0.33877758026123</v>
@@ -2172,19 +2097,19 @@
         <v>0.335207023620605</v>
       </c>
       <c r="V12" s="3">
-        <v>0.32390846252441402</v>
+        <v>0.323908462524414</v>
       </c>
       <c r="W12" s="3">
-        <v>0.30455389022827201</v>
+        <v>0.304553890228272</v>
       </c>
       <c r="X12" s="3">
-        <v>0.28112363815307601</v>
+        <v>0.281123638153076</v>
       </c>
       <c r="Y12" s="3">
-        <v>0.26325553894043002</v>
+        <v>0.26325553894043</v>
       </c>
       <c r="Z12" s="3">
-        <v>0.25269218444824199</v>
+        <v>0.252692184448242</v>
       </c>
       <c r="AA12" s="3">
         <v>0.247234287261963</v>
@@ -2193,398 +2118,392 @@
         <v>0.245231285095215</v>
       </c>
       <c r="AC12" s="3">
-        <v>0.24817962646484401</v>
+        <v>0.248179626464844</v>
       </c>
       <c r="AD12" s="3">
-        <v>0.25853719711303702</v>
+        <v>0.258537197113037</v>
       </c>
       <c r="AE12" s="3">
-        <v>0.27420429229736298</v>
+        <v>0.274204292297363</v>
       </c>
       <c r="AF12" s="3">
-        <v>0.29226690292358398</v>
+        <v>0.292266902923584</v>
       </c>
       <c r="AG12" s="3">
-        <v>0.30531089782714799</v>
+        <v>0.305310897827148</v>
       </c>
       <c r="AH12" s="3">
-        <v>0.31329330444335901</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+        <v>0.313293304443359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3">
-        <v>0.14944760322570799</v>
+        <v>0.149447603225708</v>
       </c>
       <c r="E13" s="3">
-        <v>0.16367269515991201</v>
+        <v>0.163672695159912</v>
       </c>
       <c r="F13" s="3">
         <v>0.178357200622559</v>
       </c>
       <c r="G13" s="3">
-        <v>0.19484603881835899</v>
+        <v>0.194846038818359</v>
       </c>
       <c r="H13" s="3">
-        <v>0.21462425231933599</v>
+        <v>0.214624252319336</v>
       </c>
       <c r="I13" s="3">
-        <v>0.23152702331542999</v>
+        <v>0.23152702331543</v>
       </c>
       <c r="J13" s="3">
         <v>0.243655967712402</v>
       </c>
       <c r="K13" s="3">
-        <v>0.25514522552490199</v>
+        <v>0.255145225524902</v>
       </c>
       <c r="L13" s="3">
-        <v>0.26439062118530299</v>
+        <v>0.264390621185303</v>
       </c>
       <c r="M13" s="3">
         <v>0.274006366729736</v>
       </c>
       <c r="N13" s="3">
-        <v>0.28328905105590801</v>
+        <v>0.283289051055908</v>
       </c>
       <c r="O13" s="3">
-        <v>0.29234386444091798</v>
+        <v>0.292343864440918</v>
       </c>
       <c r="P13" s="3">
         <v>0.301745586395264</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.31080430984497098</v>
+        <v>0.310804309844971</v>
       </c>
       <c r="R13" s="3">
-        <v>0.31924802780151401</v>
+        <v>0.319248027801514</v>
       </c>
       <c r="S13" s="3">
-        <v>0.32566825866699201</v>
+        <v>0.325668258666992</v>
       </c>
       <c r="T13" s="3">
         <v>0.328203735351562</v>
       </c>
       <c r="U13" s="3">
-        <v>0.32453575134277302</v>
+        <v>0.324535751342773</v>
       </c>
       <c r="V13" s="3">
-        <v>0.31315586090087899</v>
+        <v>0.313155860900879</v>
       </c>
       <c r="W13" s="3">
-        <v>0.29378208160400399</v>
+        <v>0.293782081604004</v>
       </c>
       <c r="X13" s="3">
-        <v>0.26993268966674799</v>
+        <v>0.269932689666748</v>
       </c>
       <c r="Y13" s="3">
-        <v>0.25165918350219701</v>
+        <v>0.251659183502197</v>
       </c>
       <c r="Z13" s="3">
         <v>0.24140905380249</v>
       </c>
       <c r="AA13" s="3">
-        <v>0.23558067321777301</v>
+        <v>0.235580673217773</v>
       </c>
       <c r="AB13" s="3">
-        <v>0.23325805664062499</v>
+        <v>0.233258056640625</v>
       </c>
       <c r="AC13" s="3">
         <v>0.236752128601074</v>
       </c>
       <c r="AD13" s="3">
-        <v>0.24731674194335901</v>
+        <v>0.247316741943359</v>
       </c>
       <c r="AE13" s="3">
-        <v>0.26298137664794902</v>
+        <v>0.262981376647949</v>
       </c>
       <c r="AF13" s="3">
         <v>0.280612163543701</v>
       </c>
       <c r="AG13" s="3">
-        <v>0.29299751281738301</v>
+        <v>0.292997512817383</v>
       </c>
       <c r="AH13" s="3">
-        <v>0.30084964752197302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+        <v>0.300849647521973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3">
-        <v>0.16299777984619099</v>
+        <v>0.162997779846191</v>
       </c>
       <c r="E14" s="3">
-        <v>0.17739654541015601</v>
+        <v>0.177396545410156</v>
       </c>
       <c r="F14" s="3">
         <v>0.192401905059814</v>
       </c>
       <c r="G14" s="3">
-        <v>0.21043287277221701</v>
+        <v>0.210432872772217</v>
       </c>
       <c r="H14" s="3">
-        <v>0.23117527008056599</v>
+        <v>0.231175270080566</v>
       </c>
       <c r="I14" s="3">
-        <v>0.24840854644775401</v>
+        <v>0.248408546447754</v>
       </c>
       <c r="J14" s="3">
         <v>0.260936260223389</v>
       </c>
       <c r="K14" s="3">
-        <v>0.27283126831054699</v>
+        <v>0.272831268310547</v>
       </c>
       <c r="L14" s="3">
         <v>0.282057285308838</v>
       </c>
       <c r="M14" s="3">
-        <v>0.29127506256103503</v>
+        <v>0.291275062561035</v>
       </c>
       <c r="N14" s="3">
-        <v>0.30101818084716803</v>
+        <v>0.301018180847168</v>
       </c>
       <c r="O14" s="3">
-        <v>0.31053913116455101</v>
+        <v>0.310539131164551</v>
       </c>
       <c r="P14" s="3">
-        <v>0.31976306915283198</v>
+        <v>0.319763069152832</v>
       </c>
       <c r="Q14" s="3">
         <v>0.328440971374512</v>
       </c>
       <c r="R14" s="3">
-        <v>0.33690105438232398</v>
+        <v>0.336901054382324</v>
       </c>
       <c r="S14" s="3">
-        <v>0.34306468963622999</v>
+        <v>0.34306468963623</v>
       </c>
       <c r="T14" s="3">
-        <v>0.34588745117187503</v>
+        <v>0.345887451171875</v>
       </c>
       <c r="U14" s="3">
-        <v>0.34159538269042999</v>
+        <v>0.34159538269043</v>
       </c>
       <c r="V14" s="3">
-        <v>0.32914905548095702</v>
+        <v>0.329149055480957</v>
       </c>
       <c r="W14" s="3">
-        <v>0.30940088272094701</v>
+        <v>0.309400882720947</v>
       </c>
       <c r="X14" s="3">
-        <v>0.28574449539184599</v>
+        <v>0.285744495391846</v>
       </c>
       <c r="Y14" s="3">
-        <v>0.26741718292236299</v>
+        <v>0.267417182922363</v>
       </c>
       <c r="Z14" s="3">
-        <v>0.25665306091308598</v>
+        <v>0.256653060913086</v>
       </c>
       <c r="AA14" s="3">
-        <v>0.25089756011962899</v>
+        <v>0.250897560119629</v>
       </c>
       <c r="AB14" s="3">
-        <v>0.24876527786254901</v>
+        <v>0.248765277862549</v>
       </c>
       <c r="AC14" s="3">
-        <v>0.25100988388061501</v>
+        <v>0.251009883880615</v>
       </c>
       <c r="AD14" s="3">
-        <v>0.26230478286743197</v>
+        <v>0.262304782867432</v>
       </c>
       <c r="AE14" s="3">
-        <v>0.27764019012451202</v>
+        <v>0.277640190124512</v>
       </c>
       <c r="AF14" s="3">
         <v>0.296066455841064</v>
       </c>
       <c r="AG14" s="3">
-        <v>0.30897499084472702</v>
+        <v>0.308974990844727</v>
       </c>
       <c r="AH14" s="3">
-        <v>0.31626018524169902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+        <v>0.316260185241699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>45524.763275463003</v>
+        <v>45524.763275463</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3">
         <v>0.188181552886963</v>
       </c>
       <c r="E15" s="3">
-        <v>0.20379987716674799</v>
+        <v>0.203799877166748</v>
       </c>
       <c r="F15" s="3">
-        <v>0.22057596206665001</v>
+        <v>0.22057596206665</v>
       </c>
       <c r="G15" s="3">
         <v>0.238143920898438</v>
       </c>
       <c r="H15" s="3">
-        <v>0.26117568969726601</v>
+        <v>0.261175689697266</v>
       </c>
       <c r="I15" s="3">
-        <v>0.27832344055175801</v>
+        <v>0.278323440551758</v>
       </c>
       <c r="J15" s="3">
-        <v>0.29265121459960902</v>
+        <v>0.292651214599609</v>
       </c>
       <c r="K15" s="3">
-        <v>0.30345653533935502</v>
+        <v>0.303456535339355</v>
       </c>
       <c r="L15" s="3">
-        <v>0.31368648529052701</v>
+        <v>0.313686485290527</v>
       </c>
       <c r="M15" s="3">
-        <v>0.32312305450439499</v>
+        <v>0.323123054504395</v>
       </c>
       <c r="N15" s="3">
-        <v>0.33328285217285197</v>
+        <v>0.333282852172852</v>
       </c>
       <c r="O15" s="3">
         <v>0.342167129516602</v>
       </c>
       <c r="P15" s="3">
-        <v>0.35117237091064502</v>
+        <v>0.351172370910645</v>
       </c>
       <c r="Q15" s="3">
-        <v>0.35988746643066399</v>
+        <v>0.359887466430664</v>
       </c>
       <c r="R15" s="3">
-        <v>0.36866775512695299</v>
+        <v>0.368667755126953</v>
       </c>
       <c r="S15" s="3">
-        <v>0.37511478424072298</v>
+        <v>0.375114784240723</v>
       </c>
       <c r="T15" s="3">
-        <v>0.37745037078857402</v>
+        <v>0.377450370788574</v>
       </c>
       <c r="U15" s="3">
-        <v>0.37362682342529302</v>
+        <v>0.373626823425293</v>
       </c>
       <c r="V15" s="3">
-        <v>0.36135559082031199</v>
+        <v>0.361355590820312</v>
       </c>
       <c r="W15" s="3">
-        <v>0.34029598236084002</v>
+        <v>0.34029598236084</v>
       </c>
       <c r="X15" s="3">
-        <v>0.31464925765991197</v>
+        <v>0.314649257659912</v>
       </c>
       <c r="Y15" s="3">
-        <v>0.29488357543945298</v>
+        <v>0.294883575439453</v>
       </c>
       <c r="Z15" s="3">
-        <v>0.28312114715576198</v>
+        <v>0.283121147155762</v>
       </c>
       <c r="AA15" s="3">
-        <v>0.27723068237304699</v>
+        <v>0.277230682373047</v>
       </c>
       <c r="AB15" s="3">
-        <v>0.27503997802734398</v>
+        <v>0.275039978027344</v>
       </c>
       <c r="AC15" s="3">
-        <v>0.27806619644164998</v>
+        <v>0.27806619644165</v>
       </c>
       <c r="AD15" s="3">
-        <v>0.28666151046752902</v>
+        <v>0.286661510467529</v>
       </c>
       <c r="AE15" s="3">
         <v>0.304471435546875</v>
       </c>
       <c r="AF15" s="3">
-        <v>0.32279788970947298</v>
+        <v>0.322797889709473</v>
       </c>
       <c r="AG15" s="3">
         <v>0.336341896057129</v>
       </c>
       <c r="AH15" s="3">
-        <v>0.34350784301757797</v>
+        <v>0.343507843017578</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="67.53125" customWidth="1"/>
+    <col min="2" max="2" width="67.5347" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="280" customHeight="1">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="280" customHeight="1">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="280" customHeight="1">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="280" customHeight="1">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="280" customHeight="1">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="280" customHeight="1">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="280" customHeight="1">
+      <c r="A8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="280.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="280.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="280.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="280.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="280.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="280.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="280.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>